--- a/tuning.xlsx
+++ b/tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\OneDrive - 南方科技大学\Code\ME338\nmt-multi30k-pytorch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8788A4-7D93-43E8-A98E-EBAEB1DEE884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F47ADDE-DC24-469A-9E66-2D57F6F52AA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>EMB_SIZE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,79 +91,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>vocab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最小词频2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>transformer-5-20-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>vocab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最小词频1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>transformer-5-20-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>transformer-5-20-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transformer-5-20-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_fre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online-21-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ofline-21-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline-21-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online-21-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online-my-21-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online-21-11(layer norm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,20 +196,6 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,11 +217,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,12 +229,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,479 +511,1005 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="30.125" customWidth="1"/>
-    <col min="4" max="4" width="31.375" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="30.125" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="14" max="14" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
         <v>33.130000000000003</v>
       </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>512</v>
-      </c>
-      <c r="F2" s="2">
-        <v>512</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>512</v>
+      </c>
+      <c r="I2" s="1">
+        <v>512</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="L2" s="1">
         <v>128</v>
       </c>
-      <c r="J2" s="2">
+      <c r="M2" s="1">
         <v>16</v>
       </c>
-      <c r="K2" s="2">
+      <c r="N2" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>34.36</v>
       </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>512</v>
-      </c>
-      <c r="F3" s="2">
-        <v>512</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>512</v>
+      </c>
+      <c r="I3" s="1">
+        <v>512</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1">
         <v>0.5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="L3" s="1">
         <v>128</v>
       </c>
-      <c r="J3" s="2">
+      <c r="M3" s="1">
         <v>40</v>
       </c>
-      <c r="K3" s="2">
+      <c r="N3" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>28.77</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
-        <v>512</v>
-      </c>
-      <c r="F4" s="2">
-        <v>512</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
+        <v>512</v>
+      </c>
+      <c r="I4" s="1">
+        <v>512</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="L4" s="1">
         <v>128</v>
       </c>
-      <c r="J4" s="2">
+      <c r="M4" s="1">
         <v>40</v>
       </c>
-      <c r="K4" s="2">
+      <c r="N4" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>29.16</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
-        <v>512</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="H5" s="1">
+        <v>512</v>
+      </c>
+      <c r="I5" s="1">
         <v>1024</v>
       </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
         <v>0.1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="L5" s="1">
         <v>64</v>
       </c>
-      <c r="J5" s="2">
+      <c r="M5" s="1">
         <v>50</v>
       </c>
-      <c r="K5" s="2">
+      <c r="N5" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>512</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1024</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>64</v>
+      </c>
+      <c r="M6" s="1">
+        <v>30</v>
+      </c>
+      <c r="N6" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>512</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="B7" s="1">
+        <v>30.64</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>256</v>
+      </c>
+      <c r="I7" s="1">
+        <v>512</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>256</v>
+      </c>
+      <c r="M7" s="1">
+        <v>30</v>
+      </c>
+      <c r="N7" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30.29</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>256</v>
+      </c>
+      <c r="I8" s="1">
+        <v>512</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>256</v>
+      </c>
+      <c r="M8" s="1">
+        <v>50</v>
+      </c>
+      <c r="N8" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>34.61</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>512</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2048</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>64</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>256</v>
+      </c>
+      <c r="I10" s="1">
+        <v>512</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>128</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>32.86</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.843</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>512</v>
+      </c>
+      <c r="I14" s="1">
         <v>1024</v>
       </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="J14" s="1">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>128</v>
+      </c>
+      <c r="M14" s="1">
+        <v>50</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>36.06</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.617</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>256</v>
+      </c>
+      <c r="I15" s="1">
+        <v>256</v>
+      </c>
+      <c r="J15" s="1">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1">
         <v>0.1</v>
       </c>
-      <c r="I7" s="2">
-        <v>64</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="L15" s="1">
+        <v>256</v>
+      </c>
+      <c r="M15" s="1">
+        <v>50</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>34.57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.589</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>256</v>
+      </c>
+      <c r="I16" s="1">
+        <v>512</v>
+      </c>
+      <c r="J16" s="1">
+        <v>8</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>128</v>
+      </c>
+      <c r="M16" s="1">
+        <v>50</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>33.69</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.849</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>512</v>
+      </c>
+      <c r="I17" s="1">
+        <v>512</v>
+      </c>
+      <c r="J17" s="1">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>128</v>
+      </c>
+      <c r="M17" s="1">
+        <v>40</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>512</v>
+      </c>
+      <c r="I18" s="1">
+        <v>512</v>
+      </c>
+      <c r="J18" s="1">
+        <v>8</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>128</v>
+      </c>
+      <c r="M18" s="1">
+        <v>40</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>512</v>
+      </c>
+      <c r="I19" s="1">
+        <v>512</v>
+      </c>
+      <c r="J19" s="1">
+        <v>8</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>128</v>
+      </c>
+      <c r="M19" s="1">
+        <v>40</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2">
-        <v>30.64</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B20" s="1">
+        <v>31.78</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>512</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1024</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>128</v>
+      </c>
+      <c r="M20" s="1">
+        <v>40</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1">
+        <v>33.28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>512</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2048</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="1">
         <v>256</v>
       </c>
-      <c r="F8" s="2">
-        <v>512</v>
-      </c>
-      <c r="G8" s="2">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>256</v>
-      </c>
-      <c r="J8" s="2">
-        <v>30</v>
-      </c>
-      <c r="K8" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>30.29</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>256</v>
-      </c>
-      <c r="F10" s="2">
-        <v>512</v>
-      </c>
-      <c r="G10" s="2">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>256</v>
-      </c>
-      <c r="J10" s="2">
-        <v>50</v>
-      </c>
-      <c r="K10" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2">
-        <v>34.61</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>512</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2048</v>
-      </c>
-      <c r="G11" s="2">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>64</v>
-      </c>
-      <c r="J11" s="2">
-        <v>100</v>
-      </c>
-      <c r="K11" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>256</v>
-      </c>
-      <c r="F12" s="2">
-        <v>512</v>
-      </c>
-      <c r="G12" s="2">
-        <v>16</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>256</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="M21" s="1">
+        <v>40</v>
+      </c>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:K9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
